--- a/0_1_Output_Data/5_ifoCAST_error_series_full_since_2021/ifoCAst_errors_full_latest_since_2021.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full_since_2021/ifoCAst_errors_full_latest_since_2021.xlsx
@@ -1855,7 +1855,7 @@
         <v>0.005609247143355867</v>
       </c>
       <c r="D106">
-        <v>0.7804486234241067</v>
+        <v>0.7136611031493167</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1866,7 +1866,7 @@
         <v>0.009391905143355861</v>
       </c>
       <c r="D107">
-        <v>0.7918746594241067</v>
+        <v>0.7250871391493168</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1877,7 +1877,7 @@
         <v>0.02585042314335589</v>
       </c>
       <c r="D108">
-        <v>0.7115302104241067</v>
+        <v>0.6447426901493167</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1888,7 +1888,7 @@
         <v>0.2471749241433559</v>
       </c>
       <c r="D109">
-        <v>0.7732527034241068</v>
+        <v>0.7064651831493167</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>0.1536200731433559</v>
       </c>
       <c r="C110">
-        <v>0.5947585844241068</v>
+        <v>0.5279710641493167</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1910,7 +1910,7 @@
         <v>0.2427972171433558</v>
       </c>
       <c r="C111">
-        <v>-0.1471494035758933</v>
+        <v>-0.2139369238506833</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1918,75 +1918,105 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>0.2315426864241067</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>0.1647551661493167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C113">
-        <v>0.5186180304241067</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>0.4518305101493167</v>
+      </c>
+      <c r="D113">
+        <v>0.791995474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C114">
-        <v>0.5462623554241067</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>0.4794748351493167</v>
+      </c>
+      <c r="D114">
+        <v>0.788120887</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C115">
-        <v>0.3054124294241067</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>0.2386249091493167</v>
+      </c>
+      <c r="D115">
+        <v>0.597740902</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C116">
-        <v>0.3912781354241067</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>0.3244906151493167</v>
+      </c>
+      <c r="D116">
+        <v>0.620527487</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B117">
-        <v>0.0999529544241067</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>0.03316543414931669</v>
+      </c>
+      <c r="C117">
+        <v>0.241887844</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B118">
-        <v>0.05603945542410671</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>-0.0107480648506833</v>
+      </c>
+      <c r="C118">
+        <v>0.331651578</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="C119">
+        <v>0.154182215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120">
+        <v>0.166899468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121">
+        <v>0.042359665</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="C122">
+        <v>0.266698307</v>
       </c>
     </row>
   </sheetData>
